--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413769.0086659695</v>
+        <v>-416257.7476954864</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.6016392167432</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>147.5286234000766</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>284.6717428923279</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51.90270427340749</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>160.2383728284226</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110.1842403900303</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>220.2403806056894</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>61.18181609571157</v>
       </c>
       <c r="S7" t="n">
-        <v>69.93403327444088</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>273.0533350727723</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>87.18437556471812</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>68.69533880026424</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>87.85604800581255</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654318</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327293</v>
       </c>
       <c r="U13" t="n">
-        <v>40.6225301034201</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>116.4636264596521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.405450327287</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>179.6926686226135</v>
       </c>
     </row>
     <row r="17">
@@ -1850,10 +1850,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>108.3106907504117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>135.5795121770527</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>253.6024764086795</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.9742741983395</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>89.43437620021341</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507421</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>110.3569086801647</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>147.6895341487365</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>141.5888089825039</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,16 +3481,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>106.5290632934499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>191.7762188374877</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>22.44547853568549</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.70681342859956</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.208022973022</v>
+        <v>1955.701599376003</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1806.682787860774</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1448.417089254023</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1062.628836655779</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>651.6429318661717</v>
       </c>
       <c r="G2" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.09759726723</v>
+        <v>2719.306689612894</v>
       </c>
       <c r="X2" t="n">
-        <v>2492.63183900615</v>
+        <v>2345.840931351815</v>
       </c>
       <c r="Y2" t="n">
-        <v>2102.492507030338</v>
+        <v>1955.701599376003</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>868.4600318046421</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>676.7741476314685</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>455.0075322009945</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U4" t="n">
-        <v>455.0075322009945</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="V4" t="n">
-        <v>455.0075322009945</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>455.0075322009945</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>455.0075322009945</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>234.2149530574645</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1197.073083428566</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>828.1105664881545</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>741.9599508971601</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>330.9740461075525</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445192</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>859.0871915800925</v>
       </c>
       <c r="S7" t="n">
-        <v>760.4161109247625</v>
+        <v>859.0871915800925</v>
       </c>
       <c r="T7" t="n">
-        <v>760.4161109247625</v>
+        <v>859.0871915800925</v>
       </c>
       <c r="U7" t="n">
-        <v>471.3132440504061</v>
+        <v>859.0871915800925</v>
       </c>
       <c r="V7" t="n">
-        <v>216.6287558445192</v>
+        <v>859.0871915800925</v>
       </c>
       <c r="W7" t="n">
-        <v>216.6287558445192</v>
+        <v>859.0871915800925</v>
       </c>
       <c r="X7" t="n">
-        <v>216.6287558445192</v>
+        <v>859.0871915800925</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.6287558445192</v>
+        <v>859.0871915800925</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.30093260579</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C8" t="n">
-        <v>806.3384156653785</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D8" t="n">
-        <v>530.5269660969217</v>
+        <v>547.3108956025787</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>161.5226430043345</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>154.577142255131</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645724</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669912</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>449.8213709509847</v>
+        <v>472.1048757766375</v>
       </c>
       <c r="C10" t="n">
-        <v>449.8213709509847</v>
+        <v>303.1686928487306</v>
       </c>
       <c r="D10" t="n">
-        <v>449.8213709509847</v>
+        <v>303.1686928487306</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>155.2555992663375</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>155.2555992663375</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>155.2555992663375</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4999,13 +4999,13 @@
         <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812244</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>631.4698357812244</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y10" t="n">
-        <v>631.4698357812244</v>
+        <v>472.1048757766375</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.580456911438</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835309</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711951</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2407.960931088803</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.428221820185</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820185</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783225</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885207</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741677</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>184.7035232280578</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>184.7035232280578</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438167</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703132</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424063</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424063</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>378.6527890600132</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611861</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138434</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703132</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.95525898292</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>889.0190760550126</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>691.195150674524</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>377.6556127449254</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>377.6556127449254</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>230.7656652470151</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W22" t="n">
-        <v>1360.39208240939</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X22" t="n">
-        <v>1132.402531511373</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>924.8344286397189</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2074.122646505559</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2497.745796000627</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>878.3568999154069</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D25" t="n">
-        <v>728.2402605030711</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E25" t="n">
-        <v>580.327166920678</v>
+        <v>194.80077839983</v>
       </c>
       <c r="F25" t="n">
-        <v>433.4372194227676</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>266.2411201376476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O27" t="n">
-        <v>1965.532750177311</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2152.636624305706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1863.561397649904</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1319.459739407056</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6479,7 +6479,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6488,7 +6488,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.826443164475</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.409273127515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,10 +7160,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7257,13 @@
         <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246296</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7807,13 +7807,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,10 +7840,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216.1322024467374</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>126.2499827611256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22638,7 +22638,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,16 +22711,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>37.02944839663984</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>91.8992704954054</v>
       </c>
       <c r="W4" t="n">
-        <v>275.5773437616807</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.4141550351014</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>245.561944285824</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.95742156327917</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>38.89198472948132</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>40.30478226780065</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>29.94462611521612</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>32.92052192791149</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459174</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>50.86033664601045</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>107.0485416471236</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393071</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>33.93343655154945</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>144.8013425629424</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.71423459433169</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350416</v>
+        <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.309891502</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="J2" t="n">
         <v>282501.3098915022</v>
-      </c>
-      <c r="J2" t="n">
-        <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="L2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="M2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="N2" t="n">
         <v>282501.3098915022</v>
-      </c>
-      <c r="M2" t="n">
-        <v>282501.3098915022</v>
-      </c>
-      <c r="N2" t="n">
-        <v>282501.3098915023</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35180.04910159822</v>
+        <v>35180.04910159828</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26442,22 +26442,22 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.583971892</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498544</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1220315.809455543</v>
+        <v>-1220571.678694953</v>
       </c>
       <c r="C6" t="n">
-        <v>85833.9347870535</v>
+        <v>85833.93478705376</v>
       </c>
       <c r="D6" t="n">
-        <v>85833.93478705344</v>
+        <v>85833.93478705347</v>
       </c>
       <c r="E6" t="n">
-        <v>-160080.2657116522</v>
+        <v>-160115.0036370878</v>
       </c>
       <c r="F6" t="n">
-        <v>165332.1960957031</v>
+        <v>165297.4581702673</v>
       </c>
       <c r="G6" t="n">
-        <v>165332.1960957034</v>
+        <v>165297.4581702673</v>
       </c>
       <c r="H6" t="n">
-        <v>165332.1960957031</v>
+        <v>165297.4581702672</v>
       </c>
       <c r="I6" t="n">
-        <v>165332.1960957031</v>
+        <v>165297.4581702675</v>
       </c>
       <c r="J6" t="n">
-        <v>-52199.00630157447</v>
+        <v>-52233.74422700967</v>
       </c>
       <c r="K6" t="n">
-        <v>165332.1960957033</v>
+        <v>165297.4581702675</v>
       </c>
       <c r="L6" t="n">
-        <v>165332.1960957031</v>
+        <v>165297.4581702672</v>
       </c>
       <c r="M6" t="n">
-        <v>80277.16816019126</v>
+        <v>80242.43023475565</v>
       </c>
       <c r="N6" t="n">
-        <v>165332.1960957032</v>
+        <v>165297.4581702673</v>
       </c>
       <c r="O6" t="n">
-        <v>140735.3423699668</v>
+        <v>140735.3423699666</v>
       </c>
       <c r="P6" t="n">
-        <v>160163.0603635985</v>
+        <v>160163.0603635983</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26796,16 +26796,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>217.744268370931</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>10.94565457491029</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>272.5496012734503</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>190.681345047764</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>27.75033657433576</v>
       </c>
       <c r="S7" t="n">
-        <v>119.834992057001</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>81.6297065479107</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>323.7373500887353</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.73862384630493</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>56.89896690850823</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29560,10 +29560,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31607,7 +31607,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O12" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>218.6425359394808</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206127</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,7 +32321,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32336,7 +32336,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32549,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0195168876591</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197778</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32576,7 +32576,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175647</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>158.8462560123191</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32871,31 +32871,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>454.8099857531869</v>
+        <v>250.3097721075164</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33257,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>270.4557004614718</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33977,16 +33977,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>422.1299181110993</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>472.0729312464055</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>752.2150000824574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>452.8027404478645</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O12" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>91.80490927281406</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753334</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.300110790292</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>18.86448192629754</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>320.8355783388566</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>189.5729943876631</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>136.4812930471415</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>283.5755383312251</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>620.8732879991242</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>310.2064960034201</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
